--- a/data/Основы ОТС и предмет Экологии (Общая экология 2023)(1-110).xlsx
+++ b/data/Основы ОТС и предмет Экологии (Общая экология 2023)(1-110).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144"/>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>Почта</t>
   </si>
@@ -770,6 +770,36 @@
   </si>
   <si>
     <t>Софья Ужвий</t>
+  </si>
+  <si>
+    <t>st123832@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Елизавета Стародубова</t>
+  </si>
+  <si>
+    <t>st123831@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>София Дмитровская</t>
+  </si>
+  <si>
+    <t>st123950@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Владислава Ягодская</t>
+  </si>
+  <si>
+    <t>st123859@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Екатерина Галкина</t>
+  </si>
+  <si>
+    <t>st123949@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Михаил Бабин</t>
   </si>
 </sst>
 </file>
@@ -1252,26 +1282,26 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1395,11 +1425,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1560,8 +1591,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AF111" totalsRowShown="0">
-  <autoFilter ref="A1:AF111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AF116" totalsRowShown="0">
+  <autoFilter ref="A1:AF116"/>
   <tableColumns count="32">
     <tableColumn id="4" name="Почта" dataDxfId="0"/>
     <tableColumn id="5" name="Имя" dataDxfId="1"/>
@@ -1858,10 +1889,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF111"/>
+  <dimension ref="A1:AF116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1980,28 +2011,20 @@
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="G2"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
-      <c r="AB2"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -2019,28 +2042,20 @@
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
-      <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-      <c r="AB3"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -2058,28 +2073,20 @@
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
-      <c r="G4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -2097,28 +2104,20 @@
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
-      <c r="G5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -2136,28 +2135,20 @@
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
-      <c r="G6"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -2175,28 +2166,20 @@
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
-      <c r="G7"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -2214,28 +2197,20 @@
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
-      <c r="G8"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-      <c r="AB8"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -2253,28 +2228,20 @@
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
-      <c r="G9"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AB9"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
@@ -2292,28 +2259,20 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
-      <c r="G10"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -2331,28 +2290,20 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
-      <c r="G11"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -2370,28 +2321,20 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
-      <c r="G12"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -2409,28 +2352,20 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
-      <c r="G13"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-      <c r="AB13"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -2448,28 +2383,20 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
-      <c r="G14"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-      <c r="AB14"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -2487,28 +2414,20 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
-      <c r="G15"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-      <c r="AB15"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -2526,28 +2445,20 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
-      <c r="G16"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-      <c r="AB16"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
@@ -2565,28 +2476,20 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
-      <c r="G17"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -2604,28 +2507,20 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
-      <c r="G18"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-      <c r="AB18"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -2643,28 +2538,20 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
-      <c r="G19"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AB19"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -2682,28 +2569,20 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
-      <c r="G20"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-      <c r="AB20"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -2721,28 +2600,20 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
-      <c r="G21"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-      <c r="AB21"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -2760,28 +2631,20 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
-      <c r="G22"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
-      <c r="AB22"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -2799,28 +2662,20 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="1"/>
-      <c r="G23"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
-      <c r="AB23"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -2838,28 +2693,20 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="1"/>
-      <c r="G24"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
-      <c r="AB24"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -2877,28 +2724,20 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
-      <c r="G25"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
-      <c r="AB25"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -2916,28 +2755,20 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="1"/>
-      <c r="G26"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-      <c r="AB26"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -2955,28 +2786,20 @@
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
-      <c r="G27"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
-      <c r="V27"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-      <c r="AB27"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -2994,28 +2817,20 @@
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="1"/>
-      <c r="G28"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
-      <c r="V28"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
-      <c r="AB28"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -3033,28 +2848,20 @@
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="1"/>
-      <c r="G29"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
-      <c r="V29"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
-      <c r="AB29"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -3072,28 +2879,20 @@
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="1"/>
-      <c r="G30"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
-      <c r="V30"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
-      <c r="AB30"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -3111,28 +2910,20 @@
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="1"/>
-      <c r="G31"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
-      <c r="AB31"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -3150,28 +2941,20 @@
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="1"/>
-      <c r="G32"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
-      <c r="V32"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
-      <c r="AB32"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -3189,28 +2972,20 @@
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="1"/>
-      <c r="G33"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
-      <c r="V33"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
-      <c r="AB33"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -3228,28 +3003,20 @@
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="1"/>
-      <c r="G34"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
-      <c r="V34"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
-      <c r="AB34"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -3267,28 +3034,20 @@
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="1"/>
-      <c r="G35"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="V35"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
-      <c r="AB35"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -3306,28 +3065,20 @@
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="1"/>
-      <c r="G36"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="S36"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-      <c r="V36"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
-      <c r="Y36"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
-      <c r="AB36"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -3345,28 +3096,20 @@
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="1"/>
-      <c r="G37"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-      <c r="S37"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-      <c r="V37"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
-      <c r="AB37"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -3384,28 +3127,20 @@
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="1"/>
-      <c r="G38"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="S38"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
-      <c r="V38"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
-      <c r="Y38"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
-      <c r="AB38"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -3423,28 +3158,20 @@
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="1"/>
-      <c r="G39"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
-      <c r="V39"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
-      <c r="AB39"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
@@ -3462,28 +3189,20 @@
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1"/>
-      <c r="G40"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="S40"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-      <c r="V40"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-      <c r="Y40"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
-      <c r="AB40"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
@@ -3501,28 +3220,20 @@
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="1"/>
-      <c r="G41"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="S41"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
-      <c r="AB41"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -3540,28 +3251,20 @@
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="1"/>
-      <c r="G42"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="S42"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-      <c r="V42"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-      <c r="Y42"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
-      <c r="AB42"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -3579,28 +3282,20 @@
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="1"/>
-      <c r="G43"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="S43"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-      <c r="V43"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-      <c r="Y43"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
-      <c r="AB43"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -3618,28 +3313,20 @@
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="1"/>
-      <c r="G44"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="S44"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-      <c r="V44"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-      <c r="Y44"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
-      <c r="AB44"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -3657,28 +3344,20 @@
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="1"/>
-      <c r="G45"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="S45"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
-      <c r="V45"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
-      <c r="AB45"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -3696,28 +3375,20 @@
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="1"/>
-      <c r="G46"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
-      <c r="AB46"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -3735,28 +3406,20 @@
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="1"/>
-      <c r="G47"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="V47"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
-      <c r="AB47"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -3774,28 +3437,20 @@
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="1"/>
-      <c r="G48"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-      <c r="S48"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-      <c r="V48"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="Y48"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
-      <c r="AB48"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -3813,28 +3468,20 @@
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="1"/>
-      <c r="G49"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-      <c r="S49"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-      <c r="V49"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
-      <c r="AB49"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -3852,28 +3499,20 @@
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="1"/>
-      <c r="G50"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-      <c r="S50"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-      <c r="V50"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="Y50"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
-      <c r="AB50"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -3891,28 +3530,20 @@
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="1"/>
-      <c r="G51"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="P51"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-      <c r="S51"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-      <c r="V51"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
-      <c r="Y51"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
-      <c r="AB51"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -3930,28 +3561,20 @@
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="1"/>
-      <c r="G52"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="P52"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-      <c r="S52"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
-      <c r="V52"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
-      <c r="Y52"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
-      <c r="AB52"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -3969,28 +3592,20 @@
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="1"/>
-      <c r="G53"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
-      <c r="P53"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
-      <c r="S53"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
-      <c r="V53"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
-      <c r="Y53"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
-      <c r="AB53"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -4008,28 +3623,20 @@
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="1"/>
-      <c r="G54"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="P54"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="Y54"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
-      <c r="AB54"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -4047,28 +3654,20 @@
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="1"/>
-      <c r="G55"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-      <c r="S55"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
-      <c r="V55"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="Y55"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
-      <c r="AB55"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -4086,28 +3685,20 @@
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="1"/>
-      <c r="G56"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
-      <c r="S56"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-      <c r="V56"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
-      <c r="Y56"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
-      <c r="AB56"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -4125,28 +3716,20 @@
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="1"/>
-      <c r="G57"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-      <c r="S57"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="Y57"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
-      <c r="AB57"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -4164,28 +3747,20 @@
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="1"/>
-      <c r="G58"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="P58"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-      <c r="S58"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-      <c r="V58"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="Y58"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
-      <c r="AB58"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -4203,28 +3778,20 @@
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="1"/>
-      <c r="G59"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
-      <c r="S59"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
-      <c r="V59"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
-      <c r="AB59"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -4242,28 +3809,20 @@
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
       <c r="F60" s="1"/>
-      <c r="G60"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="S60"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
-      <c r="V60"/>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
-      <c r="Y60"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
-      <c r="AB60"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -4281,28 +3840,20 @@
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="1"/>
-      <c r="G61"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
-      <c r="S61"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-      <c r="V61"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
-      <c r="Y61"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
-      <c r="AB61"/>
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
@@ -4320,28 +3871,20 @@
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="1"/>
-      <c r="G62"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="P62"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-      <c r="S62"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
-      <c r="V62"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
-      <c r="Y62"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
-      <c r="AB62"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
@@ -4359,28 +3902,20 @@
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
       <c r="F63" s="1"/>
-      <c r="G63"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
-      <c r="S63"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
-      <c r="V63"/>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
-      <c r="Y63"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
-      <c r="AB63"/>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
@@ -4398,28 +3933,20 @@
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
       <c r="F64" s="1"/>
-      <c r="G64"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-      <c r="S64"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
-      <c r="V64"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
-      <c r="Y64"/>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
-      <c r="AB64"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
@@ -4437,28 +3964,20 @@
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
       <c r="F65" s="1"/>
-      <c r="G65"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-      <c r="S65"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
-      <c r="V65"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
-      <c r="Y65"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
-      <c r="AB65"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
@@ -4476,28 +3995,20 @@
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
       <c r="F66" s="1"/>
-      <c r="G66"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="S66"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
-      <c r="Y66"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
-      <c r="AB66"/>
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
@@ -4515,28 +4026,20 @@
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="1"/>
-      <c r="G67"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-      <c r="P67"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-      <c r="S67"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
-      <c r="V67"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
-      <c r="Y67"/>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
-      <c r="AB67"/>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
@@ -4554,28 +4057,20 @@
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
       <c r="F68" s="1"/>
-      <c r="G68"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-      <c r="S68"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
-      <c r="V68"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
-      <c r="Y68"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
-      <c r="AB68"/>
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
@@ -4593,28 +4088,20 @@
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
       <c r="F69" s="1"/>
-      <c r="G69"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-      <c r="S69"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
-      <c r="V69"/>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
-      <c r="Y69"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
-      <c r="AB69"/>
       <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
@@ -4632,28 +4119,20 @@
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
       <c r="F70" s="1"/>
-      <c r="G70"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="P70"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-      <c r="S70"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
-      <c r="V70"/>
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
-      <c r="Y70"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
-      <c r="AB70"/>
       <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
@@ -4671,28 +4150,20 @@
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
       <c r="F71" s="1"/>
-      <c r="G71"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-      <c r="P71"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
-      <c r="S71"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
-      <c r="V71"/>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
-      <c r="Y71"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
-      <c r="AB71"/>
       <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
@@ -4710,28 +4181,20 @@
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
       <c r="F72" s="1"/>
-      <c r="G72"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
-      <c r="S72"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
-      <c r="V72"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
-      <c r="Y72"/>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
-      <c r="AB72"/>
       <c r="AC72" s="1"/>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
@@ -4749,28 +4212,20 @@
       <c r="D73" s="1"/>
       <c r="E73" s="2"/>
       <c r="F73" s="1"/>
-      <c r="G73"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
-      <c r="S73"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
-      <c r="V73"/>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
-      <c r="Y73"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
-      <c r="AB73"/>
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
@@ -4788,28 +4243,20 @@
       <c r="D74" s="1"/>
       <c r="E74" s="2"/>
       <c r="F74" s="1"/>
-      <c r="G74"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
-      <c r="S74"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
-      <c r="V74"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
-      <c r="Y74"/>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
-      <c r="AB74"/>
       <c r="AC74" s="1"/>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
@@ -4827,28 +4274,20 @@
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
       <c r="F75" s="1"/>
-      <c r="G75"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="P75"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
-      <c r="S75"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
-      <c r="V75"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
-      <c r="Y75"/>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
-      <c r="AB75"/>
       <c r="AC75" s="1"/>
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
@@ -4866,28 +4305,20 @@
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
-      <c r="G76"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
-      <c r="S76"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
-      <c r="V76"/>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
-      <c r="Y76"/>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
-      <c r="AB76"/>
       <c r="AC76" s="1"/>
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
@@ -4905,28 +4336,20 @@
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
-      <c r="G77"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="P77"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
-      <c r="S77"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
-      <c r="V77"/>
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
-      <c r="Y77"/>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
-      <c r="AB77"/>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
@@ -4944,28 +4367,20 @@
       <c r="D78" s="1"/>
       <c r="E78" s="2"/>
       <c r="F78" s="1"/>
-      <c r="G78"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="P78"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
-      <c r="S78"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
-      <c r="V78"/>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
-      <c r="Y78"/>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
-      <c r="AB78"/>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
@@ -4983,28 +4398,20 @@
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
       <c r="F79" s="1"/>
-      <c r="G79"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="P79"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
-      <c r="S79"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
-      <c r="V79"/>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
-      <c r="Y79"/>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
-      <c r="AB79"/>
       <c r="AC79" s="1"/>
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
@@ -5022,28 +4429,20 @@
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
       <c r="F80" s="1"/>
-      <c r="G80"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
-      <c r="S80"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
-      <c r="V80"/>
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
-      <c r="Y80"/>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
-      <c r="AB80"/>
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
@@ -5061,28 +4460,20 @@
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
       <c r="F81" s="1"/>
-      <c r="G81"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-      <c r="P81"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
-      <c r="S81"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
-      <c r="V81"/>
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
-      <c r="Y81"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
-      <c r="AB81"/>
       <c r="AC81" s="1"/>
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
@@ -5100,28 +4491,20 @@
       <c r="D82" s="1"/>
       <c r="E82" s="2"/>
       <c r="F82" s="1"/>
-      <c r="G82"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="P82"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
-      <c r="S82"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
-      <c r="V82"/>
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
-      <c r="Y82"/>
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
-      <c r="AB82"/>
       <c r="AC82" s="1"/>
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
@@ -5139,28 +4522,20 @@
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
       <c r="F83" s="1"/>
-      <c r="G83"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="M83"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-      <c r="P83"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
-      <c r="S83"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
-      <c r="V83"/>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
-      <c r="Y83"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
-      <c r="AB83"/>
       <c r="AC83" s="1"/>
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
@@ -5178,28 +4553,20 @@
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
-      <c r="G84"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-      <c r="P84"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
-      <c r="S84"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
-      <c r="V84"/>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
-      <c r="Y84"/>
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
-      <c r="AB84"/>
       <c r="AC84" s="1"/>
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
@@ -5217,28 +4584,20 @@
       <c r="D85" s="1"/>
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
-      <c r="G85"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="M85"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
-      <c r="S85"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
-      <c r="V85"/>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
-      <c r="Y85"/>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
-      <c r="AB85"/>
       <c r="AC85" s="1"/>
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
@@ -5256,28 +4615,20 @@
       <c r="D86" s="1"/>
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
-      <c r="G86"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="M86"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
-      <c r="P86"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
-      <c r="S86"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
-      <c r="V86"/>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
-      <c r="Y86"/>
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
-      <c r="AB86"/>
       <c r="AC86" s="1"/>
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
@@ -5295,28 +4646,20 @@
       <c r="D87" s="1"/>
       <c r="E87" s="2"/>
       <c r="F87" s="1"/>
-      <c r="G87"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-      <c r="M87"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
-      <c r="P87"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
-      <c r="S87"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
-      <c r="V87"/>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
-      <c r="Y87"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
-      <c r="AB87"/>
       <c r="AC87" s="1"/>
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
@@ -5334,28 +4677,20 @@
       <c r="D88" s="1"/>
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
-      <c r="G88"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-      <c r="M88"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
-      <c r="P88"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
-      <c r="S88"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
-      <c r="V88"/>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
-      <c r="Y88"/>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
-      <c r="AB88"/>
       <c r="AC88" s="1"/>
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
@@ -5373,28 +4708,20 @@
       <c r="D89" s="1"/>
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
-      <c r="G89"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
-      <c r="P89"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
-      <c r="S89"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
-      <c r="V89"/>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
-      <c r="Y89"/>
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
-      <c r="AB89"/>
       <c r="AC89" s="1"/>
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
@@ -5412,28 +4739,20 @@
       <c r="D90" s="1"/>
       <c r="E90" s="2"/>
       <c r="F90" s="1"/>
-      <c r="G90"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
-      <c r="P90"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
-      <c r="S90"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
-      <c r="V90"/>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
-      <c r="Y90"/>
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
-      <c r="AB90"/>
       <c r="AC90" s="1"/>
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
@@ -5451,28 +4770,20 @@
       <c r="D91" s="1"/>
       <c r="E91" s="2"/>
       <c r="F91" s="1"/>
-      <c r="G91"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="M91"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
-      <c r="P91"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
-      <c r="S91"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
-      <c r="V91"/>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
-      <c r="Y91"/>
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
-      <c r="AB91"/>
       <c r="AC91" s="1"/>
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
@@ -5490,28 +4801,20 @@
       <c r="D92" s="1"/>
       <c r="E92" s="2"/>
       <c r="F92" s="1"/>
-      <c r="G92"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-      <c r="M92"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
-      <c r="P92"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
-      <c r="S92"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
-      <c r="V92"/>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
-      <c r="Y92"/>
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
-      <c r="AB92"/>
       <c r="AC92" s="1"/>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
@@ -5529,28 +4832,20 @@
       <c r="D93" s="1"/>
       <c r="E93" s="2"/>
       <c r="F93" s="1"/>
-      <c r="G93"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-      <c r="M93"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
-      <c r="P93"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
-      <c r="S93"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
-      <c r="V93"/>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
-      <c r="Y93"/>
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
-      <c r="AB93"/>
       <c r="AC93" s="1"/>
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
@@ -5568,28 +4863,20 @@
       <c r="D94" s="1"/>
       <c r="E94" s="2"/>
       <c r="F94" s="1"/>
-      <c r="G94"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-      <c r="M94"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
-      <c r="P94"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
-      <c r="S94"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
-      <c r="V94"/>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
-      <c r="Y94"/>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
-      <c r="AB94"/>
       <c r="AC94" s="1"/>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
@@ -5607,28 +4894,20 @@
       <c r="D95" s="1"/>
       <c r="E95" s="2"/>
       <c r="F95" s="1"/>
-      <c r="G95"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
-      <c r="M95"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
-      <c r="P95"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
-      <c r="S95"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
-      <c r="V95"/>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
-      <c r="Y95"/>
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
-      <c r="AB95"/>
       <c r="AC95" s="1"/>
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
@@ -5646,28 +4925,20 @@
       <c r="D96" s="1"/>
       <c r="E96" s="2"/>
       <c r="F96" s="1"/>
-      <c r="G96"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
-      <c r="M96"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
-      <c r="P96"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
-      <c r="S96"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
-      <c r="V96"/>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
-      <c r="Y96"/>
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
-      <c r="AB96"/>
       <c r="AC96" s="1"/>
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
@@ -5685,28 +4956,20 @@
       <c r="D97" s="1"/>
       <c r="E97" s="2"/>
       <c r="F97" s="1"/>
-      <c r="G97"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
-      <c r="P97"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
-      <c r="S97"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
-      <c r="V97"/>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
-      <c r="Y97"/>
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
-      <c r="AB97"/>
       <c r="AC97" s="1"/>
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
@@ -5724,28 +4987,20 @@
       <c r="D98" s="1"/>
       <c r="E98" s="2"/>
       <c r="F98" s="1"/>
-      <c r="G98"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
-      <c r="M98"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
-      <c r="P98"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
-      <c r="S98"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
-      <c r="V98"/>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
-      <c r="Y98"/>
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
-      <c r="AB98"/>
       <c r="AC98" s="1"/>
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
@@ -5763,28 +5018,20 @@
       <c r="D99" s="1"/>
       <c r="E99" s="2"/>
       <c r="F99" s="1"/>
-      <c r="G99"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-      <c r="M99"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
-      <c r="P99"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
-      <c r="S99"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
-      <c r="V99"/>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
-      <c r="Y99"/>
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
-      <c r="AB99"/>
       <c r="AC99" s="1"/>
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
@@ -5802,28 +5049,20 @@
       <c r="D100" s="1"/>
       <c r="E100" s="2"/>
       <c r="F100" s="1"/>
-      <c r="G100"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-      <c r="M100"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
-      <c r="P100"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
-      <c r="S100"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
-      <c r="V100"/>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
-      <c r="Y100"/>
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
-      <c r="AB100"/>
       <c r="AC100" s="1"/>
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
@@ -5841,28 +5080,20 @@
       <c r="D101" s="1"/>
       <c r="E101" s="2"/>
       <c r="F101" s="1"/>
-      <c r="G101"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
-      <c r="M101"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
-      <c r="P101"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
-      <c r="S101"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
-      <c r="V101"/>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
-      <c r="Y101"/>
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
-      <c r="AB101"/>
       <c r="AC101" s="1"/>
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
@@ -5880,28 +5111,20 @@
       <c r="D102" s="1"/>
       <c r="E102" s="2"/>
       <c r="F102" s="1"/>
-      <c r="G102"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
-      <c r="M102"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
-      <c r="P102"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
-      <c r="S102"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
-      <c r="V102"/>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
-      <c r="Y102"/>
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
-      <c r="AB102"/>
       <c r="AC102" s="1"/>
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
@@ -5919,28 +5142,20 @@
       <c r="D103" s="1"/>
       <c r="E103" s="2"/>
       <c r="F103" s="1"/>
-      <c r="G103"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
-      <c r="M103"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
-      <c r="P103"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
-      <c r="S103"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
-      <c r="V103"/>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
-      <c r="Y103"/>
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
-      <c r="AB103"/>
       <c r="AC103" s="1"/>
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
@@ -5958,28 +5173,20 @@
       <c r="D104" s="1"/>
       <c r="E104" s="2"/>
       <c r="F104" s="1"/>
-      <c r="G104"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
-      <c r="M104"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
-      <c r="P104"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
-      <c r="S104"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
-      <c r="V104"/>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
-      <c r="Y104"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
-      <c r="AB104"/>
       <c r="AC104" s="1"/>
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
@@ -5997,28 +5204,20 @@
       <c r="D105" s="1"/>
       <c r="E105" s="2"/>
       <c r="F105" s="1"/>
-      <c r="G105"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
-      <c r="M105"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
-      <c r="P105"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
-      <c r="S105"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
-      <c r="V105"/>
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
-      <c r="Y105"/>
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
-      <c r="AB105"/>
       <c r="AC105" s="1"/>
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
@@ -6036,28 +5235,20 @@
       <c r="D106" s="1"/>
       <c r="E106" s="2"/>
       <c r="F106" s="1"/>
-      <c r="G106"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
-      <c r="M106"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
-      <c r="P106"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
-      <c r="S106"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
-      <c r="V106"/>
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
-      <c r="Y106"/>
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
-      <c r="AB106"/>
       <c r="AC106" s="1"/>
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
@@ -6075,28 +5266,20 @@
       <c r="D107" s="1"/>
       <c r="E107" s="2"/>
       <c r="F107" s="1"/>
-      <c r="G107"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
-      <c r="M107"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
-      <c r="P107"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
-      <c r="S107"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
-      <c r="V107"/>
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
-      <c r="Y107"/>
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
-      <c r="AB107"/>
       <c r="AC107" s="1"/>
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
@@ -6114,28 +5297,20 @@
       <c r="D108" s="1"/>
       <c r="E108" s="2"/>
       <c r="F108" s="1"/>
-      <c r="G108"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
-      <c r="M108"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
-      <c r="P108"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
-      <c r="S108"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
-      <c r="V108"/>
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
-      <c r="Y108"/>
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
-      <c r="AB108"/>
       <c r="AC108" s="1"/>
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
@@ -6153,28 +5328,20 @@
       <c r="D109" s="1"/>
       <c r="E109" s="2"/>
       <c r="F109" s="1"/>
-      <c r="G109"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
-      <c r="M109"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
-      <c r="P109"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
-      <c r="S109"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
-      <c r="V109"/>
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
-      <c r="Y109"/>
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
-      <c r="AB109"/>
       <c r="AC109" s="1"/>
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
@@ -6192,28 +5359,20 @@
       <c r="D110" s="1"/>
       <c r="E110" s="2"/>
       <c r="F110" s="1"/>
-      <c r="G110"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
-      <c r="M110"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
-      <c r="P110"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
-      <c r="S110"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
-      <c r="V110"/>
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
-      <c r="Y110"/>
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
-      <c r="AB110"/>
       <c r="AC110" s="1"/>
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
@@ -6231,31 +5390,223 @@
       <c r="D111" s="1"/>
       <c r="E111" s="2"/>
       <c r="F111" s="1"/>
-      <c r="G111"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
-      <c r="M111"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
-      <c r="P111"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
-      <c r="S111"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
-      <c r="V111"/>
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
-      <c r="Y111"/>
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
-      <c r="AB111"/>
       <c r="AC111" s="1"/>
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
+    </row>
+    <row r="112" spans="1:32">
+      <c r="A112" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C112" s="4">
+        <v>6</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+    </row>
+    <row r="113" spans="1:32">
+      <c r="A113" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="4">
+        <v>7</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
+      <c r="AC113" s="1"/>
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+      <c r="AF113" s="1"/>
+    </row>
+    <row r="114" spans="1:32">
+      <c r="A114" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C114" s="4">
+        <v>6</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
+      <c r="AC114" s="1"/>
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="1"/>
+      <c r="AF114" s="1"/>
+    </row>
+    <row r="115" spans="1:32">
+      <c r="A115" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C115" s="4">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+      <c r="AB115" s="1"/>
+      <c r="AC115" s="1"/>
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="1"/>
+      <c r="AF115" s="1"/>
+    </row>
+    <row r="116" spans="1:32">
+      <c r="A116" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C116" s="4">
+        <v>7</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
